--- a/GUATEMALA/Indígenas/Indicadores sociodemo poblaciones y PI-CELADE/% Actividad Ec. Primaria Secundaria Terciaria - Indígenas Guatemala.xlsx
+++ b/GUATEMALA/Indígenas/Indicadores sociodemo poblaciones y PI-CELADE/% Actividad Ec. Primaria Secundaria Terciaria - Indígenas Guatemala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Indígenas\Indicadores sociodemo poblaciones y PI-CELADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44839211-F88D-406F-941F-7C3A49862A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB62BF90-E065-4381-AF9A-53C629DF804D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,13 +153,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +518,7 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,35 +529,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -583,7 +583,7 @@
       <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
